--- a/Course I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
+++ b/Course I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="76">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Деменчук Георгий Максимович</t>
+  </si>
+  <si>
+    <t>Бадмаев Баир Михайлович</t>
+  </si>
+  <si>
+    <t>Бедак Иван Андреевич</t>
+  </si>
+  <si>
+    <t>Булдаков Федор Георгиевич</t>
   </si>
   <si>
     <t>Баллы</t>
@@ -595,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,88 +662,88 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
       <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" t="s">
-        <v>11</v>
-      </c>
       <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s">
         <v>13</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" t="s">
-        <v>11</v>
-      </c>
       <c r="X2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AB2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AC2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -745,73 +754,73 @@
         <v>3.3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>2.3</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N3">
         <v>3.3</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R3">
         <v>3.3</v>
       </c>
       <c r="S3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="V3">
         <v>3.3</v>
       </c>
       <c r="W3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="X3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Z3">
         <v>15.5</v>
@@ -823,6 +832,273 @@
         <v>94</v>
       </c>
       <c r="AC3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>2.3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4">
+        <v>3.3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4">
+        <v>3.3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4">
+        <v>3.3</v>
+      </c>
+      <c r="W4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4">
+        <v>15.5</v>
+      </c>
+      <c r="AA4">
+        <v>58</v>
+      </c>
+      <c r="AB4">
+        <v>94</v>
+      </c>
+      <c r="AC4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>3.3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>2.3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5">
+        <v>3.3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5">
+        <v>3.3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5">
+        <v>3.3</v>
+      </c>
+      <c r="W5" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5">
+        <v>15.5</v>
+      </c>
+      <c r="AA5">
+        <v>58</v>
+      </c>
+      <c r="AB5">
+        <v>94</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>3.3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>2.3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6">
+        <v>3.3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6">
+        <v>3.3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6">
+        <v>3.3</v>
+      </c>
+      <c r="W6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z6">
+        <v>15.5</v>
+      </c>
+      <c r="AA6">
+        <v>58</v>
+      </c>
+      <c r="AB6">
+        <v>94</v>
+      </c>
+      <c r="AC6">
         <v>5</v>
       </c>
     </row>
@@ -833,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -844,37 +1120,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -891,88 +1167,88 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
       <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" t="s">
-        <v>11</v>
-      </c>
       <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s">
         <v>13</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" t="s">
-        <v>11</v>
-      </c>
       <c r="X2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AB2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AC2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -983,73 +1259,73 @@
         <v>3.3</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>3.3</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J3">
         <v>3.3</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>3.3</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R3">
         <v>3.3</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V3">
         <v>3.3</v>
       </c>
       <c r="W3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Y3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Z3">
         <v>19.8</v>
@@ -1061,6 +1337,273 @@
         <v>94</v>
       </c>
       <c r="AC3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>3.3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>3.3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4">
+        <v>3.3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4">
+        <v>3.3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4">
+        <v>3.3</v>
+      </c>
+      <c r="W4" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4">
+        <v>19.8</v>
+      </c>
+      <c r="AA4">
+        <v>58</v>
+      </c>
+      <c r="AB4">
+        <v>94</v>
+      </c>
+      <c r="AC4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>3.3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <v>3.3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5">
+        <v>3.3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5">
+        <v>3.3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5">
+        <v>3.3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5">
+        <v>3.3</v>
+      </c>
+      <c r="W5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5">
+        <v>19.8</v>
+      </c>
+      <c r="AA5">
+        <v>58</v>
+      </c>
+      <c r="AB5">
+        <v>94</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>3.3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>3.3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6">
+        <v>3.3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6">
+        <v>3.3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6">
+        <v>3.3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6">
+        <v>3.3</v>
+      </c>
+      <c r="W6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z6">
+        <v>19.8</v>
+      </c>
+      <c r="AA6">
+        <v>58</v>
+      </c>
+      <c r="AB6">
+        <v>94</v>
+      </c>
+      <c r="AC6">
         <v>5</v>
       </c>
     </row>
@@ -1071,7 +1614,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1082,16 +1625,16 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1099,15 +1642,66 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>94</v>
       </c>
       <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>94</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>94</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>94</v>
+      </c>
+      <c r="E5">
         <v>5</v>
       </c>
     </row>
@@ -1118,7 +1712,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1126,28 +1720,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1155,25 +1749,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>3.3</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1181,25 +1775,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>2.3</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1207,25 +1801,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1233,25 +1827,25 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>3.3</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1259,25 +1853,25 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>3.3</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1285,25 +1879,25 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E7">
         <v>3.3</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1311,25 +1905,25 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <v>3.3</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1337,25 +1931,25 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>3.3</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1363,25 +1957,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>3.3</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1389,25 +1983,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>3.3</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1415,25 +2009,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>3.3</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1441,25 +2035,961 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <v>3.3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <v>3.3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15">
+        <v>2.3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17">
+        <v>3.3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>3.3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19">
+        <v>3.3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20">
+        <v>3.3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21">
+        <v>3.3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22">
+        <v>3.3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23">
+        <v>3.3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="E13">
-        <v>3.3</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24">
+        <v>3.3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25">
+        <v>3.3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26">
+        <v>3.3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27">
+        <v>2.3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29">
+        <v>3.3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <v>3.3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31">
+        <v>3.3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32">
+        <v>3.3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33">
+        <v>3.3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34">
+        <v>3.3</v>
+      </c>
+      <c r="F34" t="s">
         <v>41</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35">
+        <v>3.3</v>
+      </c>
+      <c r="F35" t="s">
         <v>41</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36">
+        <v>3.3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <v>3.3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38">
+        <v>3.3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39">
+        <v>2.3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41">
+        <v>3.3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42">
+        <v>3.3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43">
+        <v>3.3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44">
+        <v>3.3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45">
+        <v>3.3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46">
+        <v>3.3</v>
+      </c>
+      <c r="F46" t="s">
         <v>41</v>
+      </c>
+      <c r="G46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47">
+        <v>3.3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48">
+        <v>3.3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49">
+        <v>3.3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1469,7 +2999,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1477,19 +3007,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1497,16 +3027,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>15.5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1514,16 +3044,118 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>19.8</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>15.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <v>19.8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>15.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>19.8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>15.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>19.8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +3165,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1541,17 +3173,41 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
         <v>58</v>
       </c>
     </row>

--- a/Course I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
+++ b/Course I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="76">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3165,49 +3165,64 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>75</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>75</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>58</v>
       </c>
     </row>
